--- a/Permute focal lengths/Permute focal lengths/focal2.xlsx
+++ b/Permute focal lengths/Permute focal lengths/focal2.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -355,7 +355,7 @@
         <v>-19</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -366,7 +366,7 @@
         <v>-20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -377,7 +377,7 @@
         <v>-21</v>
       </c>
       <c r="C3">
-        <v>72</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Permute focal lengths/Permute focal lengths/focal2.xlsx
+++ b/Permute focal lengths/Permute focal lengths/focal2.xlsx
@@ -23,9 +23,23 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Focal Length 1</t>
+  </si>
+  <si>
+    <t>Focal Length 2</t>
+  </si>
+  <si>
+    <t>Focal Length 3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +47,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,14 +77,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -336,47 +381,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>130</v>
-      </c>
-      <c r="B1">
-        <v>-19</v>
-      </c>
-      <c r="C1">
-        <v>70</v>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B2">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>140</v>
+      </c>
+      <c r="B3">
+        <v>-20</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>150</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>-21</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>2</v>
       </c>
     </row>

--- a/Permute focal lengths/Permute focal lengths/focal2.xlsx
+++ b/Permute focal lengths/Permute focal lengths/focal2.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterate="1" iterateCount="1000" iterateDelta="9.9999999999999995E-8"/>
+  <calcPr calcId="171027" iterate="1" iterateCount="1000" iterateDelta="9.9999999999999995E-8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,6 +437,61 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>160</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>170</v>
+      </c>
+      <c r="B6">
+        <v>-45</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>-78</v>
+      </c>
+      <c r="C7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>190</v>
+      </c>
+      <c r="B8">
+        <v>-8</v>
+      </c>
+      <c r="C8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>-15</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Permute focal lengths/Permute focal lengths/focal2.xlsx
+++ b/Permute focal lengths/Permute focal lengths/focal2.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\source\repos\Permute-focal-lengths\Permute focal lengths\Permute focal lengths\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Source\Repos\Permute-focal-lengths\Permute focal lengths\Permute focal lengths\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18876" windowHeight="7812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" iterate="1" iterateCount="1000" iterateDelta="9.9999999999999995E-8"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,20 +380,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,92 +404,1093 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>130</v>
+        <v>40.492239365424602</v>
       </c>
       <c r="B2">
-        <v>-19</v>
+        <v>-6.2475731824908696</v>
       </c>
       <c r="C2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40.492239365424602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>140</v>
+        <v>40.496404327354</v>
       </c>
       <c r="B3">
-        <v>-20</v>
+        <v>-6.2528449314194203</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40.496404327354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>150</v>
+        <v>40.646800610863998</v>
       </c>
       <c r="B4">
-        <v>-21</v>
+        <v>-9.1829685990413505</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40.646800610863998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>160</v>
+        <v>40.656888720939499</v>
       </c>
       <c r="B5">
-        <v>-2</v>
+        <v>-9.1852889678384706</v>
       </c>
       <c r="C5">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40.656888720939499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>170</v>
+        <v>40.660557607798999</v>
       </c>
       <c r="B6">
-        <v>-45</v>
+        <v>-9.2063757874274597</v>
       </c>
       <c r="C6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40.660557607798999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>50</v>
+        <v>40.660557607798999</v>
       </c>
       <c r="B7">
-        <v>-78</v>
+        <v>-9.2851406109206405</v>
       </c>
       <c r="C7">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40.660557607798999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>190</v>
+        <v>40.660557607798999</v>
       </c>
       <c r="B8">
-        <v>-8</v>
+        <v>-9.2934932286585195</v>
       </c>
       <c r="C8">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40.660557607798999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>40</v>
+        <v>40.775393538431402</v>
       </c>
       <c r="B9">
-        <v>-15</v>
+        <v>-9.3647275304428099</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>40.775393538431402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>40.7889103317573</v>
+      </c>
+      <c r="B10">
+        <v>-9.3726419659581701</v>
+      </c>
+      <c r="C10">
+        <v>40.7889103317573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>40.7889103317573</v>
+      </c>
+      <c r="B11">
+        <v>-9.3779920170298698</v>
+      </c>
+      <c r="C11">
+        <v>40.7889103317573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>40.790040074996497</v>
+      </c>
+      <c r="B12">
+        <v>-12.2322250177026</v>
+      </c>
+      <c r="C12">
+        <v>40.790040074996497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>40.793493299194097</v>
+      </c>
+      <c r="B13">
+        <v>-12.237643551861799</v>
+      </c>
+      <c r="C13">
+        <v>40.793493299194097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>40.793626609475602</v>
+      </c>
+      <c r="B14">
+        <v>-12.2416750347407</v>
+      </c>
+      <c r="C14">
+        <v>40.793626609475602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>40.798724551126497</v>
+      </c>
+      <c r="B15">
+        <v>-12.2767666280815</v>
+      </c>
+      <c r="C15">
+        <v>40.798724551126497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>40.798724551126497</v>
+      </c>
+      <c r="B16">
+        <v>-12.4951463649818</v>
+      </c>
+      <c r="C16">
+        <v>40.798724551126497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>40.798724551126497</v>
+      </c>
+      <c r="B17">
+        <v>-12.4951463649818</v>
+      </c>
+      <c r="C17">
+        <v>40.798724551126497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>40.906165766735398</v>
+      </c>
+      <c r="B18">
+        <v>-12.4971060079375</v>
+      </c>
+      <c r="C18">
+        <v>40.906165766735398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>40.9209547760086</v>
+      </c>
+      <c r="B19">
+        <v>-12.499064430539001</v>
+      </c>
+      <c r="C19">
+        <v>40.9209547760086</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>40.922555426938303</v>
+      </c>
+      <c r="B20">
+        <v>-13.7890536563193</v>
+      </c>
+      <c r="C20">
+        <v>40.922555426938303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>40.922555426938303</v>
+      </c>
+      <c r="B21">
+        <v>-14.2764597904863</v>
+      </c>
+      <c r="C21">
+        <v>40.922555426938303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>41.036642160905402</v>
+      </c>
+      <c r="B22">
+        <v>-15.187831695703499</v>
+      </c>
+      <c r="C22">
+        <v>41.036642160905402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>41.606290855244403</v>
+      </c>
+      <c r="B23">
+        <v>-15.297054439827299</v>
+      </c>
+      <c r="C23">
+        <v>41.606290855244403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>41.637223396685599</v>
+      </c>
+      <c r="B24">
+        <v>-15.345354323257901</v>
+      </c>
+      <c r="C24">
+        <v>41.637223396685599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>41.637223396685599</v>
+      </c>
+      <c r="B25">
+        <v>-15.4796558470634</v>
+      </c>
+      <c r="C25">
+        <v>41.637223396685599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>42.851490566277498</v>
+      </c>
+      <c r="B26">
+        <v>-15.4943234380414</v>
+      </c>
+      <c r="C26">
+        <v>42.851490566277498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>45.397709950455202</v>
+      </c>
+      <c r="B27">
+        <v>-15.612300712933701</v>
+      </c>
+      <c r="C27">
+        <v>45.397709950455202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>45.880891841602697</v>
+      </c>
+      <c r="B28">
+        <v>-18.204003864571298</v>
+      </c>
+      <c r="C28">
+        <v>45.880891841602697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>45.891159688226701</v>
+      </c>
+      <c r="B29">
+        <v>-18.348337526553902</v>
+      </c>
+      <c r="C29">
+        <v>45.891159688226701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>45.895313513994999</v>
+      </c>
+      <c r="B30">
+        <v>-18.356465327792801</v>
+      </c>
+      <c r="C30">
+        <v>45.895313513994999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>45.901032386862397</v>
+      </c>
+      <c r="B31">
+        <v>-18.365937198082701</v>
+      </c>
+      <c r="C31">
+        <v>45.901032386862397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>45.910901454242897</v>
+      </c>
+      <c r="B32">
+        <v>-18.3674462263259</v>
+      </c>
+      <c r="C32">
+        <v>45.910901454242897</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>46.660111502823597</v>
+      </c>
+      <c r="B33">
+        <v>-18.423074845590001</v>
+      </c>
+      <c r="C33">
+        <v>46.660111502823597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>46.676932986080203</v>
+      </c>
+      <c r="B34">
+        <v>-18.5835457084283</v>
+      </c>
+      <c r="C34">
+        <v>46.676932986080203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>46.676932986080203</v>
+      </c>
+      <c r="B35">
+        <v>-18.729455060885599</v>
+      </c>
+      <c r="C35">
+        <v>46.676932986080203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>47.331778178763201</v>
+      </c>
+      <c r="B36">
+        <v>-18.729455060885599</v>
+      </c>
+      <c r="C36">
+        <v>47.331778178763201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>47.332989219081099</v>
+      </c>
+      <c r="B37">
+        <v>-19.072386908915501</v>
+      </c>
+      <c r="C37">
+        <v>47.332989219081099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>47.369753429356997</v>
+      </c>
+      <c r="B38">
+        <v>-19.124186066377401</v>
+      </c>
+      <c r="C38">
+        <v>47.369753429356997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>47.7256043416089</v>
+      </c>
+      <c r="B39">
+        <v>-19.124826625394999</v>
+      </c>
+      <c r="C39">
+        <v>47.7256043416089</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>47.737385824079702</v>
+      </c>
+      <c r="B40">
+        <v>-20.388791633574598</v>
+      </c>
+      <c r="C40">
+        <v>47.737385824079702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>47.762614080205303</v>
+      </c>
+      <c r="B41">
+        <v>-20.461277713469102</v>
+      </c>
+      <c r="C41">
+        <v>47.762614080205303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>47.767163932500502</v>
+      </c>
+      <c r="B42">
+        <v>-20.822517681911901</v>
+      </c>
+      <c r="C42">
+        <v>47.767163932500502</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>48.219979772960698</v>
+      </c>
+      <c r="B43">
+        <v>-24.036480053800599</v>
+      </c>
+      <c r="C43">
+        <v>48.219979772960698</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>48.658899678321298</v>
+      </c>
+      <c r="B44">
+        <v>-24.040893648331</v>
+      </c>
+      <c r="C44">
+        <v>48.658899678321298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>48.777469519479297</v>
+      </c>
+      <c r="B45">
+        <v>-24.134358268227</v>
+      </c>
+      <c r="C45">
+        <v>48.777469519479297</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>48.955555881253702</v>
+      </c>
+      <c r="B46">
+        <v>-24.376596429918301</v>
+      </c>
+      <c r="C46">
+        <v>48.955555881253702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>48.970312342208402</v>
+      </c>
+      <c r="B47">
+        <v>-24.475287103723701</v>
+      </c>
+      <c r="C47">
+        <v>48.970312342208402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48.9900504769695</v>
+      </c>
+      <c r="B48">
+        <v>-24.4833500694813</v>
+      </c>
+      <c r="C48">
+        <v>48.9900504769695</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>50.617384654608003</v>
+      </c>
+      <c r="B49">
+        <v>-25.2988976784555</v>
+      </c>
+      <c r="C49">
+        <v>50.617384654608003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50.621133823404101</v>
+      </c>
+      <c r="B50">
+        <v>-25.309440441435701</v>
+      </c>
+      <c r="C50">
+        <v>50.621133823404101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50.621133823404101</v>
+      </c>
+      <c r="B51">
+        <v>-25.383241302732799</v>
+      </c>
+      <c r="C51">
+        <v>50.621133823404101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50.644123003055398</v>
+      </c>
+      <c r="B52">
+        <v>-25.4875088550675</v>
+      </c>
+      <c r="C52">
+        <v>50.644123003055398</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50.822376510748299</v>
+      </c>
+      <c r="B53">
+        <v>-25.576597141836402</v>
+      </c>
+      <c r="C53">
+        <v>50.822376510748299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>50.824920957433001</v>
+      </c>
+      <c r="B54">
+        <v>-25.580816511368202</v>
+      </c>
+      <c r="C54">
+        <v>50.824920957433001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>50.825697009748701</v>
+      </c>
+      <c r="B55">
+        <v>-25.8230224853679</v>
+      </c>
+      <c r="C55">
+        <v>50.825697009748701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>50.825697009748701</v>
+      </c>
+      <c r="B56">
+        <v>-26.0249226837518</v>
+      </c>
+      <c r="C56">
+        <v>50.825697009748701</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>50.825697009748701</v>
+      </c>
+      <c r="B57">
+        <v>-26.031462635010499</v>
+      </c>
+      <c r="C57">
+        <v>50.825697009748701</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>50.825697009748701</v>
+      </c>
+      <c r="B58">
+        <v>-27.416269183122701</v>
+      </c>
+      <c r="C58">
+        <v>50.825697009748701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>50.924387683554102</v>
+      </c>
+      <c r="B59">
+        <v>-27.578107312638501</v>
+      </c>
+      <c r="C59">
+        <v>50.924387683554102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>50.9697545459764</v>
+      </c>
+      <c r="B60">
+        <v>-28.107447077915499</v>
+      </c>
+      <c r="C60">
+        <v>50.9697545459764</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>50.975017710134999</v>
+      </c>
+      <c r="B61">
+        <v>-30.375373826251501</v>
+      </c>
+      <c r="C61">
+        <v>50.975017710134999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>50.975017710134999</v>
+      </c>
+      <c r="B62">
+        <v>-30.4559419363271</v>
+      </c>
+      <c r="C62">
+        <v>50.975017710134999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>50.975017710134999</v>
+      </c>
+      <c r="B63">
+        <v>-30.580562544256399</v>
+      </c>
+      <c r="C63">
+        <v>50.975017710134999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>50.978487440037298</v>
+      </c>
+      <c r="B64">
+        <v>-30.584178232656299</v>
+      </c>
+      <c r="C64">
+        <v>50.978487440037298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>50.992904119367097</v>
+      </c>
+      <c r="B65">
+        <v>-30.691916570203698</v>
+      </c>
+      <c r="C65">
+        <v>50.992904119367097</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>50.997232922850102</v>
+      </c>
+      <c r="B66">
+        <v>-30.694513512696901</v>
+      </c>
+      <c r="C66">
+        <v>50.997232922850102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>50.998729897533202</v>
+      </c>
+      <c r="B67">
+        <v>-30.972576180713801</v>
+      </c>
+      <c r="C67">
+        <v>50.998729897533202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>51.003340222598297</v>
+      </c>
+      <c r="B68">
+        <v>-31.224601425867402</v>
+      </c>
+      <c r="C68">
+        <v>51.003340222598297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>51.003340222598297</v>
+      </c>
+      <c r="B69">
+        <v>-35.6878182710103</v>
+      </c>
+      <c r="C69">
+        <v>51.003340222598297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>51.003340222598297</v>
+      </c>
+      <c r="B70">
+        <v>-36.437544654569997</v>
+      </c>
+      <c r="C70">
+        <v>51.003340222598297</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>51.0090656214661</v>
+      </c>
+      <c r="B71">
+        <v>-38.2463804866346</v>
+      </c>
+      <c r="C71">
+        <v>51.0090656214661</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>51.058338289821201</v>
+      </c>
+      <c r="B72">
+        <v>-38.906679255552099</v>
+      </c>
+      <c r="C72">
+        <v>51.058338289821201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>51.117571657818601</v>
+      </c>
+      <c r="B73">
+        <v>-40.492239365424602</v>
+      </c>
+      <c r="C73">
+        <v>51.117571657818601</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>51.134947718611798</v>
+      </c>
+      <c r="B74">
+        <v>-40.7666699226342</v>
+      </c>
+      <c r="C74">
+        <v>51.134947718611798</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>51.153194283672804</v>
+      </c>
+      <c r="B75">
+        <v>-40.798724551126497</v>
+      </c>
+      <c r="C75">
+        <v>51.153194283672804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>51.153194283672804</v>
+      </c>
+      <c r="B76">
+        <v>-41.074302461615801</v>
+      </c>
+      <c r="C76">
+        <v>51.153194283672804</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>51.154340159620197</v>
+      </c>
+      <c r="B77">
+        <v>-45.884329727371998</v>
+      </c>
+      <c r="C77">
+        <v>51.154340159620197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>51.681773548577297</v>
+      </c>
+      <c r="B78">
+        <v>-47.320144727598098</v>
+      </c>
+      <c r="C78">
+        <v>51.681773548577297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>51.8126037478021</v>
+      </c>
+      <c r="B79">
+        <v>-47.324593796312797</v>
+      </c>
+      <c r="C79">
+        <v>51.8126037478021</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>51.8126037478021</v>
+      </c>
+      <c r="B80">
+        <v>-47.823030709609199</v>
+      </c>
+      <c r="C80">
+        <v>51.8126037478021</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>51.986485610875199</v>
+      </c>
+      <c r="B81">
+        <v>-47.836927438116803</v>
+      </c>
+      <c r="C81">
+        <v>51.986485610875199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>52.0498453675037</v>
+      </c>
+      <c r="B82">
+        <v>-47.939673594780103</v>
+      </c>
+      <c r="C82">
+        <v>52.0498453675037</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>53.923526832169202</v>
+      </c>
+      <c r="B83">
+        <v>-48.100614086153499</v>
+      </c>
+      <c r="C83">
+        <v>53.923526832169202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>53.923526832169202</v>
+      </c>
+      <c r="B84">
+        <v>-48.970312342208402</v>
+      </c>
+      <c r="C84">
+        <v>53.923526832169202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>55.089134118139299</v>
+      </c>
+      <c r="B85">
+        <v>-50.626549580727598</v>
+      </c>
+      <c r="C85">
+        <v>55.089134118139299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>55.089134118139299</v>
+      </c>
+      <c r="B86">
+        <v>-50.7270063359434</v>
+      </c>
+      <c r="C86">
+        <v>55.089134118139299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>58.579550897530702</v>
+      </c>
+      <c r="B87">
+        <v>-50.786220740226597</v>
+      </c>
+      <c r="C87">
+        <v>58.579550897530702</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>59.160383606996099</v>
+      </c>
+      <c r="B88">
+        <v>-50.833694695146797</v>
+      </c>
+      <c r="C88">
+        <v>59.160383606996099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>60.150139895910101</v>
+      </c>
+      <c r="B89">
+        <v>-50.836002246763897</v>
+      </c>
+      <c r="C89">
+        <v>60.150139895910101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>60.962821374073499</v>
+      </c>
+      <c r="B90">
+        <v>-50.975017710134999</v>
+      </c>
+      <c r="C90">
+        <v>60.962821374073499</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>60.986322066978403</v>
+      </c>
+      <c r="B91">
+        <v>-50.981147545006301</v>
+      </c>
+      <c r="C91">
+        <v>60.986322066978403</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>60.990836411698403</v>
+      </c>
+      <c r="B92">
+        <v>-51.003340222598297</v>
+      </c>
+      <c r="C92">
+        <v>60.990836411698403</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>60.990836411698403</v>
+      </c>
+      <c r="B93">
+        <v>-51.006328931562699</v>
+      </c>
+      <c r="C93">
+        <v>60.990836411698403</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>61.172047666092503</v>
+      </c>
+      <c r="B94">
+        <v>-51.153194283672804</v>
+      </c>
+      <c r="C94">
+        <v>61.172047666092503</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>61.183365497635997</v>
+      </c>
+      <c r="B95">
+        <v>-51.168163345307299</v>
+      </c>
+      <c r="C95">
+        <v>61.183365497635997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>61.183365497635997</v>
+      </c>
+      <c r="B96">
+        <v>-70.9824292521633</v>
+      </c>
+      <c r="C96">
+        <v>61.183365497635997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>61.190576282989802</v>
+      </c>
+      <c r="B97">
+        <v>-70.986890693874102</v>
+      </c>
+      <c r="C97">
+        <v>61.190576282989802</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>61.1966795074201</v>
+      </c>
+      <c r="B98">
+        <v>-71.881579418743499</v>
+      </c>
+      <c r="C98">
+        <v>61.1966795074201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>61.198080771594398</v>
+      </c>
+      <c r="B99">
+        <v>-71.884165427705597</v>
+      </c>
+      <c r="C99">
+        <v>61.198080771594398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>61.207955894070203</v>
+      </c>
+      <c r="B100">
+        <v>-72.227925072133999</v>
+      </c>
+      <c r="C100">
+        <v>61.207955894070203</v>
       </c>
     </row>
   </sheetData>

--- a/Permute focal lengths/Permute focal lengths/focal2.xlsx
+++ b/Permute focal lengths/Permute focal lengths/focal2.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Focal Length 1</t>
   </si>
@@ -97,7 +97,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
@@ -381,19 +383,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,8 +406,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>40.492239365424602</v>
       </c>
@@ -414,8 +426,17 @@
       <c r="C2">
         <v>40.492239365424602</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-12.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>40.496404327354</v>
       </c>
@@ -425,8 +446,17 @@
       <c r="C3">
         <v>40.496404327354</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <v>140</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>40.646800610863998</v>
       </c>
@@ -436,8 +466,17 @@
       <c r="C4">
         <v>40.646800610863998</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <v>150</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-21</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40.656888720939499</v>
       </c>
@@ -447,8 +486,17 @@
       <c r="C5">
         <v>40.656888720939499</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <v>160</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40.660557607798999</v>
       </c>
@@ -458,8 +506,17 @@
       <c r="C6">
         <v>40.660557607798999</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>170</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-45</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40.660557607798999</v>
       </c>
@@ -469,8 +526,17 @@
       <c r="C7">
         <v>40.660557607798999</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-78</v>
+      </c>
+      <c r="F7" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>40.660557607798999</v>
       </c>
@@ -480,8 +546,17 @@
       <c r="C8">
         <v>40.660557607798999</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <v>190</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>40.775393538431402</v>
       </c>
@@ -491,8 +566,17 @@
       <c r="C9">
         <v>40.775393538431402</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-15</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40.7889103317573</v>
       </c>
@@ -502,8 +586,17 @@
       <c r="C10">
         <v>40.7889103317573</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>40.7889103317573</v>
       </c>
@@ -513,8 +606,17 @@
       <c r="C11">
         <v>40.7889103317573</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>40.790040074996497</v>
       </c>
@@ -524,8 +626,17 @@
       <c r="C12">
         <v>40.790040074996497</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>40.793493299194097</v>
       </c>
@@ -535,8 +646,17 @@
       <c r="C13">
         <v>40.793493299194097</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>40.793626609475602</v>
       </c>
@@ -546,8 +666,17 @@
       <c r="C14">
         <v>40.793626609475602</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>40.798724551126497</v>
       </c>
@@ -557,8 +686,17 @@
       <c r="C15">
         <v>40.798724551126497</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>40.798724551126497</v>
       </c>
@@ -568,8 +706,17 @@
       <c r="C16">
         <v>40.798724551126497</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>40.798724551126497</v>
       </c>
@@ -579,8 +726,17 @@
       <c r="C17">
         <v>40.798724551126497</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>40.906165766735398</v>
       </c>
@@ -590,8 +746,17 @@
       <c r="C18">
         <v>40.906165766735398</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>40.9209547760086</v>
       </c>
@@ -601,8 +766,17 @@
       <c r="C19">
         <v>40.9209547760086</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>40.922555426938303</v>
       </c>
@@ -612,8 +786,17 @@
       <c r="C20">
         <v>40.922555426938303</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40.922555426938303</v>
       </c>
@@ -623,8 +806,17 @@
       <c r="C21">
         <v>40.922555426938303</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>41.036642160905402</v>
       </c>
@@ -634,8 +826,17 @@
       <c r="C22">
         <v>41.036642160905402</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>41.606290855244403</v>
       </c>
@@ -645,8 +846,17 @@
       <c r="C23">
         <v>41.606290855244403</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>41.637223396685599</v>
       </c>
@@ -656,8 +866,17 @@
       <c r="C24">
         <v>41.637223396685599</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>41.637223396685599</v>
       </c>
@@ -667,8 +886,17 @@
       <c r="C25">
         <v>41.637223396685599</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>42.851490566277498</v>
       </c>
@@ -678,8 +906,17 @@
       <c r="C26">
         <v>42.851490566277498</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>45.397709950455202</v>
       </c>
@@ -689,8 +926,17 @@
       <c r="C27">
         <v>45.397709950455202</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>45.880891841602697</v>
       </c>
@@ -700,8 +946,17 @@
       <c r="C28">
         <v>45.880891841602697</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>45.891159688226701</v>
       </c>
@@ -711,8 +966,17 @@
       <c r="C29">
         <v>45.891159688226701</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>45.895313513994999</v>
       </c>
@@ -722,8 +986,17 @@
       <c r="C30">
         <v>45.895313513994999</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>45.901032386862397</v>
       </c>
@@ -733,8 +1006,17 @@
       <c r="C31">
         <v>45.901032386862397</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>45.910901454242897</v>
       </c>
@@ -744,8 +1026,17 @@
       <c r="C32">
         <v>45.910901454242897</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>46.660111502823597</v>
       </c>
@@ -755,8 +1046,17 @@
       <c r="C33">
         <v>46.660111502823597</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>46.676932986080203</v>
       </c>
@@ -766,8 +1066,17 @@
       <c r="C34">
         <v>46.676932986080203</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>46.676932986080203</v>
       </c>
@@ -777,8 +1086,17 @@
       <c r="C35">
         <v>46.676932986080203</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>47.331778178763201</v>
       </c>
@@ -788,8 +1106,17 @@
       <c r="C36">
         <v>47.331778178763201</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>47.332989219081099</v>
       </c>
@@ -799,8 +1126,17 @@
       <c r="C37">
         <v>47.332989219081099</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>47.369753429356997</v>
       </c>
@@ -810,8 +1146,17 @@
       <c r="C38">
         <v>47.369753429356997</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>47.7256043416089</v>
       </c>
@@ -821,8 +1166,17 @@
       <c r="C39">
         <v>47.7256043416089</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>47.737385824079702</v>
       </c>
@@ -832,8 +1186,17 @@
       <c r="C40">
         <v>47.737385824079702</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>47.762614080205303</v>
       </c>
@@ -843,8 +1206,17 @@
       <c r="C41">
         <v>47.762614080205303</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>47.767163932500502</v>
       </c>
@@ -854,8 +1226,17 @@
       <c r="C42">
         <v>47.767163932500502</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>48.219979772960698</v>
       </c>
@@ -865,8 +1246,17 @@
       <c r="C43">
         <v>48.219979772960698</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>48.658899678321298</v>
       </c>
@@ -876,8 +1266,17 @@
       <c r="C44">
         <v>48.658899678321298</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>48.777469519479297</v>
       </c>
@@ -887,8 +1286,17 @@
       <c r="C45">
         <v>48.777469519479297</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>48.955555881253702</v>
       </c>
@@ -898,8 +1306,17 @@
       <c r="C46">
         <v>48.955555881253702</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>48.970312342208402</v>
       </c>
@@ -909,8 +1326,17 @@
       <c r="C47">
         <v>48.970312342208402</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48.9900504769695</v>
       </c>
@@ -920,8 +1346,17 @@
       <c r="C48">
         <v>48.9900504769695</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>50.617384654608003</v>
       </c>
@@ -931,8 +1366,17 @@
       <c r="C49">
         <v>50.617384654608003</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50.621133823404101</v>
       </c>
@@ -942,8 +1386,17 @@
       <c r="C50">
         <v>50.621133823404101</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50.621133823404101</v>
       </c>
@@ -953,8 +1406,17 @@
       <c r="C51">
         <v>50.621133823404101</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50.644123003055398</v>
       </c>
@@ -964,8 +1426,17 @@
       <c r="C52">
         <v>50.644123003055398</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50.822376510748299</v>
       </c>
@@ -975,8 +1446,17 @@
       <c r="C53">
         <v>50.822376510748299</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50.824920957433001</v>
       </c>
@@ -986,8 +1466,17 @@
       <c r="C54">
         <v>50.824920957433001</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50.825697009748701</v>
       </c>
@@ -997,8 +1486,17 @@
       <c r="C55">
         <v>50.825697009748701</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>50.825697009748701</v>
       </c>
@@ -1008,8 +1506,17 @@
       <c r="C56">
         <v>50.825697009748701</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50.825697009748701</v>
       </c>
@@ -1019,8 +1526,17 @@
       <c r="C57">
         <v>50.825697009748701</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>50.825697009748701</v>
       </c>
@@ -1030,8 +1546,17 @@
       <c r="C58">
         <v>50.825697009748701</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>50.924387683554102</v>
       </c>
@@ -1041,8 +1566,17 @@
       <c r="C59">
         <v>50.924387683554102</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>50.9697545459764</v>
       </c>
@@ -1052,8 +1586,17 @@
       <c r="C60">
         <v>50.9697545459764</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>50.975017710134999</v>
       </c>
@@ -1063,8 +1606,17 @@
       <c r="C61">
         <v>50.975017710134999</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>50.975017710134999</v>
       </c>
@@ -1074,8 +1626,17 @@
       <c r="C62">
         <v>50.975017710134999</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>50.975017710134999</v>
       </c>
@@ -1085,8 +1646,17 @@
       <c r="C63">
         <v>50.975017710134999</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>50.978487440037298</v>
       </c>
@@ -1096,8 +1666,17 @@
       <c r="C64">
         <v>50.978487440037298</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>50.992904119367097</v>
       </c>
@@ -1107,8 +1686,17 @@
       <c r="C65">
         <v>50.992904119367097</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>50.997232922850102</v>
       </c>
@@ -1118,8 +1706,17 @@
       <c r="C66">
         <v>50.997232922850102</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>50.998729897533202</v>
       </c>
@@ -1129,8 +1726,17 @@
       <c r="C67">
         <v>50.998729897533202</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>51.003340222598297</v>
       </c>
@@ -1140,8 +1746,17 @@
       <c r="C68">
         <v>51.003340222598297</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>51.003340222598297</v>
       </c>
@@ -1151,8 +1766,17 @@
       <c r="C69">
         <v>51.003340222598297</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="2">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>51.003340222598297</v>
       </c>
@@ -1162,8 +1786,17 @@
       <c r="C70">
         <v>51.003340222598297</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>51.0090656214661</v>
       </c>
@@ -1173,8 +1806,17 @@
       <c r="C71">
         <v>51.0090656214661</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>51.058338289821201</v>
       </c>
@@ -1184,8 +1826,17 @@
       <c r="C72">
         <v>51.058338289821201</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>51.117571657818601</v>
       </c>
@@ -1195,8 +1846,17 @@
       <c r="C73">
         <v>51.117571657818601</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>51.134947718611798</v>
       </c>
@@ -1206,8 +1866,17 @@
       <c r="C74">
         <v>51.134947718611798</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="2">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>51.153194283672804</v>
       </c>
@@ -1217,8 +1886,17 @@
       <c r="C75">
         <v>51.153194283672804</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>51.153194283672804</v>
       </c>
@@ -1228,8 +1906,17 @@
       <c r="C76">
         <v>51.153194283672804</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="2">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>51.154340159620197</v>
       </c>
@@ -1239,8 +1926,17 @@
       <c r="C77">
         <v>51.154340159620197</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>51.681773548577297</v>
       </c>
@@ -1250,8 +1946,17 @@
       <c r="C78">
         <v>51.681773548577297</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>51.8126037478021</v>
       </c>
@@ -1261,8 +1966,17 @@
       <c r="C79">
         <v>51.8126037478021</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>51.8126037478021</v>
       </c>
@@ -1272,8 +1986,17 @@
       <c r="C80">
         <v>51.8126037478021</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>51.986485610875199</v>
       </c>
@@ -1283,8 +2006,17 @@
       <c r="C81">
         <v>51.986485610875199</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>52.0498453675037</v>
       </c>
@@ -1294,8 +2026,17 @@
       <c r="C82">
         <v>52.0498453675037</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>53.923526832169202</v>
       </c>
@@ -1305,8 +2046,17 @@
       <c r="C83">
         <v>53.923526832169202</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>53.923526832169202</v>
       </c>
@@ -1316,8 +2066,17 @@
       <c r="C84">
         <v>53.923526832169202</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>55.089134118139299</v>
       </c>
@@ -1327,8 +2086,17 @@
       <c r="C85">
         <v>55.089134118139299</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>55.089134118139299</v>
       </c>
@@ -1338,8 +2106,17 @@
       <c r="C86">
         <v>55.089134118139299</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>58.579550897530702</v>
       </c>
@@ -1349,8 +2126,17 @@
       <c r="C87">
         <v>58.579550897530702</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>59.160383606996099</v>
       </c>
@@ -1360,8 +2146,17 @@
       <c r="C88">
         <v>59.160383606996099</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>60.150139895910101</v>
       </c>
@@ -1371,8 +2166,17 @@
       <c r="C89">
         <v>60.150139895910101</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>60.962821374073499</v>
       </c>
@@ -1382,8 +2186,17 @@
       <c r="C90">
         <v>60.962821374073499</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>60.986322066978403</v>
       </c>
@@ -1393,8 +2206,17 @@
       <c r="C91">
         <v>60.986322066978403</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>60.990836411698403</v>
       </c>
@@ -1404,8 +2226,17 @@
       <c r="C92">
         <v>60.990836411698403</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>60.990836411698403</v>
       </c>
@@ -1415,8 +2246,17 @@
       <c r="C93">
         <v>60.990836411698403</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>61.172047666092503</v>
       </c>
@@ -1426,8 +2266,17 @@
       <c r="C94">
         <v>61.172047666092503</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>61.183365497635997</v>
       </c>
@@ -1437,8 +2286,17 @@
       <c r="C95">
         <v>61.183365497635997</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>61.183365497635997</v>
       </c>
@@ -1448,8 +2306,17 @@
       <c r="C96">
         <v>61.183365497635997</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="2">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>61.190576282989802</v>
       </c>
@@ -1459,8 +2326,17 @@
       <c r="C97">
         <v>61.190576282989802</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>61.1966795074201</v>
       </c>
@@ -1470,8 +2346,17 @@
       <c r="C98">
         <v>61.1966795074201</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>61.198080771594398</v>
       </c>
@@ -1481,8 +2366,17 @@
       <c r="C99">
         <v>61.198080771594398</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>61.207955894070203</v>
       </c>
@@ -1491,6 +2385,15 @@
       </c>
       <c r="C100">
         <v>61.207955894070203</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Permute focal lengths/Permute focal lengths/focal2.xlsx
+++ b/Permute focal lengths/Permute focal lengths/focal2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Source\Repos\Permute-focal-lengths\Permute focal lengths\Permute focal lengths\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2396,6 +2396,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Permute focal lengths/Permute focal lengths/focal2.xlsx
+++ b/Permute focal lengths/Permute focal lengths/focal2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Source\Repos\Permute-focal-lengths\Permute focal lengths\Permute focal lengths\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$101</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -401,7 +404,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3345,6 +3348,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I101"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>